--- a/Modulo3_Web_MisionTIC2022_Main/Semana_1/00_SCRUM_Artefacts/02_Historia_Usuario.xlsx
+++ b/Modulo3_Web_MisionTIC2022_Main/Semana_1/00_SCRUM_Artefacts/02_Historia_Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive - Luisguillermomolero\UTP\1.- CONTENIDOS\MisionTIC2022\Modulo3_Web_MisionTIC2022_Main\Semana_1\00_SCRUM_Artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB575B72-4FFD-4D9F-9BBF-458B2DCA2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1AF89-BBBB-4BED-B9C3-B68EF99EF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2475" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>HISTORIAS DE USUARIO</t>
   </si>
@@ -75,10 +75,22 @@
     <t>Descripción:</t>
   </si>
   <si>
-    <t>Es necesario generar la documentación del proyecto para tener una linea base a seguir a lo largo del desarrollo de este proyecto</t>
-  </si>
-  <si>
     <t>Observaciones:</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Gestor del proyecto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Descripción: Generar la documentación inicial del proyecto de desarrollo de software</t>
+  </si>
+  <si>
+    <t>Observaciones: Se define como estrategia inicial, generar 5 historias de usuario para establecer las funcionalidades del proyecto de software</t>
   </si>
 </sst>
 </file>
@@ -132,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,24 +155,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,10 +408,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F22"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -392,446 +420,659 @@
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8">
-        <v>44256</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="13">
+        <v>44348</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="E9" s="16">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="15">
         <v>1</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2" t="s">
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="13">
         <v>44256</v>
       </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="15">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="13">
+        <v>44256</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="E49" s="8">
+        <v>3</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="45">
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="A21:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:F34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:F14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:F19"/>
     <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A10:F14"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A30:F34"/>
+    <mergeCell ref="A35:F39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A55:F59"/>
+    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modulo3_Web_MisionTIC2022_Main/Semana_1/00_SCRUM_Artefacts/02_Historia_Usuario.xlsx
+++ b/Modulo3_Web_MisionTIC2022_Main/Semana_1/00_SCRUM_Artefacts/02_Historia_Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive - Luisguillermomolero\UTP\1.- CONTENIDOS\MisionTIC2022\Modulo3_Web_MisionTIC2022_Main\Semana_1\00_SCRUM_Artefacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google_Drive_luisguillermomolero\UTP\1.- CONTENIDOS\MisionTIC2022\Modulo3_Web_MisionTIC2022_Main\Semana_1\00_SCRUM_Artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1AF89-BBBB-4BED-B9C3-B68EF99EF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F35C1-6B07-4B78-B975-D753028C1522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2475" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de usuario" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>HISTORIAS DE USUARIO</t>
   </si>
@@ -87,10 +87,13 @@
     <t>Medio</t>
   </si>
   <si>
-    <t>Descripción: Generar la documentación inicial del proyecto de desarrollo de software</t>
-  </si>
-  <si>
     <t>Observaciones: Se define como estrategia inicial, generar 5 historias de usuario para establecer las funcionalidades del proyecto de software</t>
+  </si>
+  <si>
+    <t>Definir product backlog</t>
+  </si>
+  <si>
+    <t>Descripción: Generar el product backlog preliminar</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +192,9 @@
     </xf>
     <xf numFmtId="12" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,17 +416,17 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -430,7 +436,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -438,7 +444,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -446,7 +452,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,11 +464,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -470,7 +476,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -482,7 +488,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -494,11 +500,11 @@
         <v>7</v>
       </c>
       <c r="E7" s="13">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -514,7 +520,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -530,9 +536,9 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -540,7 +546,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -548,7 +554,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -556,7 +562,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -564,7 +570,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -572,49 +578,49 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -622,7 +628,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
@@ -632,7 +638,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -640,7 +646,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -648,7 +654,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +670,7 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -672,7 +678,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -684,7 +690,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -700,7 +706,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -716,7 +722,7 @@
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -732,7 +738,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
@@ -742,7 +748,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -750,7 +756,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -758,7 +764,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -766,7 +772,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -774,7 +780,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
@@ -784,7 +790,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -792,7 +798,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -800,7 +806,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -808,7 +814,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -816,7 +822,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -824,7 +830,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -842,7 +848,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -850,7 +856,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,7 +872,7 @@
       </c>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -874,7 +880,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -886,7 +892,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -902,7 +908,7 @@
       </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -918,7 +924,7 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>13</v>
       </c>
@@ -944,7 +950,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -952,7 +958,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -960,7 +966,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -968,7 +974,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -976,7 +982,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>14</v>
       </c>
@@ -986,7 +992,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -994,7 +1000,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1002,7 +1008,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1010,7 +1016,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1018,7 +1024,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
